--- a/Results/Top75_LSTM_DTW_KNN_HMM.xlsx
+++ b/Results/Top75_LSTM_DTW_KNN_HMM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\iHelm\TSA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhse-my.sharepoint.com/personal/mohamed_abuella_hh_se/Documents/iHelm/CTs4_TSA/TSA_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE1C369-A432-4591-A7AD-E9FB2AC1E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BEE1C369-A432-4591-A7AD-E9FB2AC1E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{220C89DE-1867-4B78-8365-9A6FD384EE32}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21240" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,11 +141,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,18 +492,21 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H165"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="14" width="8.83984375" style="1"/>
-    <col min="17" max="17" width="8.83984375" customWidth="1"/>
-    <col min="18" max="18" width="8.83984375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="5" width="8.81640625" style="1"/>
+    <col min="6" max="8" width="8.7265625"/>
+    <col min="9" max="14" width="8.81640625" style="1"/>
+    <col min="15" max="16" width="8.7265625"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -501,13 +522,13 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -538,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -555,13 +576,13 @@
         <v>0.60628013316313045</v>
       </c>
       <c r="F2">
-        <v>0.61</v>
+        <v>0.60742711713870823</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>1.146983975577776E-3</v>
       </c>
       <c r="H2">
-        <v>0.93</v>
+        <v>0.1891838298566117</v>
       </c>
       <c r="I2">
         <v>0.61995632188378846</v>
@@ -591,7 +612,7 @@
         <v>2.434683777332995</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -608,13 +629,13 @@
         <v>0.69686110945416058</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.68637846587502471</v>
       </c>
       <c r="G3">
-        <v>-0.01</v>
+        <v>-1.0482643579135861E-2</v>
       </c>
       <c r="H3">
-        <v>-1.79</v>
+        <v>-1.5042658338828441</v>
       </c>
       <c r="I3">
         <v>0.67752649322868863</v>
@@ -644,7 +665,7 @@
         <v>3.4800448761695719</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -661,13 +682,13 @@
         <v>0.56278524678956354</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <v>0.58797440785577115</v>
       </c>
       <c r="G4">
-        <v>0.04</v>
+        <v>2.518916106620761E-2</v>
       </c>
       <c r="H4">
-        <v>7.34</v>
+        <v>4.4758033743600132</v>
       </c>
       <c r="I4">
         <v>0.5891084120042096</v>
@@ -697,7 +718,7 @@
         <v>19.349492495203489</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -714,13 +735,13 @@
         <v>0.53730440121598377</v>
       </c>
       <c r="F5">
-        <v>0.55000000000000004</v>
+        <v>0.5119355811550288</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>-2.5368820060954981E-2</v>
       </c>
       <c r="H5">
-        <v>1.84</v>
+        <v>-4.7214986520754936</v>
       </c>
       <c r="I5">
         <v>0.55814915689503541</v>
@@ -750,7 +771,7 @@
         <v>22.195419971511939</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -767,13 +788,13 @@
         <v>0.61114526747637654</v>
       </c>
       <c r="F6">
-        <v>0.56000000000000005</v>
+        <v>0.60494965252311816</v>
       </c>
       <c r="G6">
-        <v>-0.06</v>
+        <v>-6.1956149532583771E-3</v>
       </c>
       <c r="H6">
-        <v>-9.18</v>
+        <v>-1.013771239502868</v>
       </c>
       <c r="I6">
         <v>0.61636642118711094</v>
@@ -803,7 +824,7 @@
         <v>2.0827454176431641</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -820,13 +841,13 @@
         <v>0.66081405103018143</v>
       </c>
       <c r="F7">
-        <v>0.66</v>
+        <v>0.65907594235960631</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-1.738108670575111E-3</v>
       </c>
       <c r="H7">
-        <v>-0.25</v>
+        <v>-0.26302538026627498</v>
       </c>
       <c r="I7">
         <v>0.66226945961173289</v>
@@ -856,7 +877,7 @@
         <v>0.42412825136550819</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -873,13 +894,13 @@
         <v>0.67915082677939942</v>
       </c>
       <c r="F8">
-        <v>0.68</v>
+        <v>0.66832978759913475</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-1.0821039180264671E-2</v>
       </c>
       <c r="H8">
-        <v>0.17</v>
+        <v>-1.593319002728615</v>
       </c>
       <c r="I8">
         <v>0.60235967658385392</v>
@@ -909,7 +930,7 @@
         <v>4.4066460326722323</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -926,13 +947,13 @@
         <v>0.58882509017302442</v>
       </c>
       <c r="F9">
-        <v>0.61</v>
+        <v>0.60847439685658089</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>1.964930668355647E-2</v>
       </c>
       <c r="H9">
-        <v>3.76</v>
+        <v>3.337036245820058</v>
       </c>
       <c r="I9">
         <v>0.5935928912906665</v>
@@ -962,7 +983,7 @@
         <v>21.352459187739811</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -979,13 +1000,13 @@
         <v>0.4844576980906341</v>
       </c>
       <c r="F10">
-        <v>0.44</v>
+        <v>0.309959373411966</v>
       </c>
       <c r="G10">
-        <v>-0.05</v>
+        <v>-0.1744983246786681</v>
       </c>
       <c r="H10">
-        <v>-9.31</v>
+        <v>-36.019310946323813</v>
       </c>
       <c r="I10">
         <v>0.49252195598323512</v>
@@ -1015,7 +1036,7 @@
         <v>14.893048074427959</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1032,13 +1053,13 @@
         <v>0.64462036753921192</v>
       </c>
       <c r="F11">
-        <v>0.66</v>
+        <v>0.64598262872528545</v>
       </c>
       <c r="G11">
-        <v>0.02</v>
+        <v>1.362261186073521E-3</v>
       </c>
       <c r="H11">
-        <v>2.75</v>
+        <v>0.2113276673639474</v>
       </c>
       <c r="I11">
         <v>0.66285723580485412</v>
@@ -1068,7 +1089,7 @@
         <v>3.3042892825385728</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1085,13 +1106,13 @@
         <v>0.53279770809065452</v>
       </c>
       <c r="F12">
-        <v>0.53</v>
+        <v>0.53357735230938497</v>
       </c>
       <c r="G12">
-        <v>-0.01</v>
+        <v>7.7964421873044643E-4</v>
       </c>
       <c r="H12">
-        <v>-1.24</v>
+        <v>0.14633025009142711</v>
       </c>
       <c r="I12">
         <v>0.54644974061640506</v>
@@ -1121,7 +1142,7 @@
         <v>27.067856501819449</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1138,13 +1159,13 @@
         <v>0.69301574150564305</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.68441109388963295</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>-8.6046476160100971E-3</v>
       </c>
       <c r="H13">
-        <v>0.74</v>
+        <v>-1.241623689140982</v>
       </c>
       <c r="I13">
         <v>0.70104183190842995</v>
@@ -1174,7 +1195,7 @@
         <v>0.59766244030925353</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1191,13 +1212,13 @@
         <v>0.67092714588436642</v>
       </c>
       <c r="F14">
-        <v>0.67</v>
+        <v>0.66914948084041437</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-1.7776650439520481E-3</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>-0.26495649413750599</v>
       </c>
       <c r="I14">
         <v>0.6665095728942374</v>
@@ -1227,7 +1248,7 @@
         <v>0.40982222184885098</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1244,13 +1265,13 @@
         <v>0.64979060438806702</v>
       </c>
       <c r="F15">
-        <v>0.66</v>
+        <v>0.65873188127259308</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>8.9412768845260615E-3</v>
       </c>
       <c r="H15">
-        <v>1.32</v>
+        <v>1.3760243414024751</v>
       </c>
       <c r="I15">
         <v>0.653505277767502</v>
@@ -1280,7 +1301,7 @@
         <v>5.448624350007079</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1297,13 +1318,13 @@
         <v>0.62713595609170447</v>
       </c>
       <c r="F16">
-        <v>0.62</v>
+        <v>0.62306048474078879</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-4.0754713509156826E-3</v>
       </c>
       <c r="H16">
-        <v>-0.52</v>
+        <v>-0.6498545189967927</v>
       </c>
       <c r="I16">
         <v>0.62164477561096387</v>
@@ -1333,7 +1354,7 @@
         <v>-0.93894578473837387</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1350,13 +1371,13 @@
         <v>0.63162649371471136</v>
       </c>
       <c r="F17">
-        <v>0.63</v>
+        <v>0.62336909115951811</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-8.2574025551932495E-3</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>-1.307323653672275</v>
       </c>
       <c r="I17">
         <v>0.61908291661018988</v>
@@ -1386,7 +1407,7 @@
         <v>8.6487558808376459</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1403,13 +1424,13 @@
         <v>0.56082710971394678</v>
       </c>
       <c r="F18">
-        <v>0.56000000000000005</v>
+        <v>0.56060030281293072</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-2.2680690101606341E-4</v>
       </c>
       <c r="H18">
-        <v>-0.05</v>
+        <v>-4.0441500970191613E-2</v>
       </c>
       <c r="I18">
         <v>0.55319565075882693</v>
@@ -1439,7 +1460,7 @@
         <v>23.24239677143931</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1456,13 +1477,13 @@
         <v>0.60480736001534385</v>
       </c>
       <c r="F19">
-        <v>0.6</v>
+        <v>0.60584512090226506</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.037760886921202E-3</v>
       </c>
       <c r="H19">
-        <v>-0.5</v>
+        <v>0.17158536015416109</v>
       </c>
       <c r="I19">
         <v>0.60656218314231125</v>
@@ -1492,7 +1513,7 @@
         <v>-2.052647932323739</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1509,13 +1530,13 @@
         <v>0.57695643811173392</v>
       </c>
       <c r="F20">
-        <v>0.56000000000000005</v>
+        <v>0.54791951177070519</v>
       </c>
       <c r="G20">
-        <v>-0.01</v>
+        <v>-2.903692634102872E-2</v>
       </c>
       <c r="H20">
-        <v>-2.4500000000000002</v>
+        <v>-5.0327762068243711</v>
       </c>
       <c r="I20">
         <v>0.56141764245335279</v>
@@ -1545,7 +1566,7 @@
         <v>-3.485629670077278</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1562,13 +1583,13 @@
         <v>0.50658417295366998</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.50262414297586422</v>
       </c>
       <c r="G21">
-        <v>-0.01</v>
+        <v>-3.9600299778057568E-3</v>
       </c>
       <c r="H21">
-        <v>-1.29</v>
+        <v>-0.78171213970554199</v>
       </c>
       <c r="I21">
         <v>0.52732665625719299</v>
@@ -1598,7 +1619,7 @@
         <v>7.4068947334350783</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1615,13 +1636,13 @@
         <v>0.64147840943348122</v>
       </c>
       <c r="F22">
-        <v>0.64</v>
+        <v>0.63720586574387239</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-4.272543689608832E-3</v>
       </c>
       <c r="H22">
-        <v>0.08</v>
+        <v>-0.66604637455874938</v>
       </c>
       <c r="I22">
         <v>0.6437076506073669</v>
@@ -1651,7 +1672,7 @@
         <v>0.37604466172795331</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1668,13 +1689,13 @@
         <v>0.56512828828382089</v>
       </c>
       <c r="F23">
-        <v>0.56000000000000005</v>
+        <v>0.56486557990321185</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-2.6270838060904472E-4</v>
       </c>
       <c r="H23">
-        <v>-0.8</v>
+        <v>-4.6486503340124122E-2</v>
       </c>
       <c r="I23">
         <v>0.56551848427035845</v>
@@ -1704,7 +1725,7 @@
         <v>22.907866438045161</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1721,13 +1742,13 @@
         <v>0.53411248805065914</v>
       </c>
       <c r="F24">
-        <v>0.52</v>
+        <v>0.50865663829969465</v>
       </c>
       <c r="G24">
-        <v>-0.02</v>
+        <v>-2.5455849750964491E-2</v>
       </c>
       <c r="H24">
-        <v>-3.41</v>
+        <v>-4.766009093678047</v>
       </c>
       <c r="I24">
         <v>0.56448584667263346</v>
@@ -1757,7 +1778,7 @@
         <v>25.512414720966191</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1774,13 +1795,13 @@
         <v>0.54422022671141979</v>
       </c>
       <c r="F25">
-        <v>0.54</v>
+        <v>0.51764156784239934</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>-2.657865886902044E-2</v>
       </c>
       <c r="H25">
-        <v>-0.79</v>
+        <v>-4.8838057765012364</v>
       </c>
       <c r="I25">
         <v>0.54449836313403344</v>
@@ -1810,7 +1831,7 @@
         <v>7.2329286083731361</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1827,13 +1848,13 @@
         <v>0.6139539399302445</v>
       </c>
       <c r="F26">
-        <v>0.59</v>
+        <v>0.60719013049247894</v>
       </c>
       <c r="G26">
-        <v>-0.03</v>
+        <v>-6.7638094377655564E-3</v>
       </c>
       <c r="H26">
-        <v>-4.45</v>
+        <v>-1.1016802723888439</v>
       </c>
       <c r="I26">
         <v>0.61751352802532467</v>
@@ -1863,7 +1884,7 @@
         <v>4.7675059808898226</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1880,13 +1901,13 @@
         <v>0.53060334069055937</v>
       </c>
       <c r="F27">
-        <v>0.53</v>
+        <v>0.48853974385929932</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-4.2063596831260042E-2</v>
       </c>
       <c r="H27">
-        <v>0.68</v>
+        <v>-7.927503203525994</v>
       </c>
       <c r="I27">
         <v>0.59773442292757983</v>
@@ -1916,7 +1937,7 @@
         <v>27.829781995086009</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1933,13 +1954,13 @@
         <v>0.599972662055132</v>
       </c>
       <c r="F28">
-        <v>0.57999999999999996</v>
+        <v>0.59875016032184536</v>
       </c>
       <c r="G28">
-        <v>-0.02</v>
+        <v>-1.222501733286641E-3</v>
       </c>
       <c r="H28">
-        <v>-2.89</v>
+        <v>-0.20375957282772059</v>
       </c>
       <c r="I28">
         <v>0.53674406409388076</v>
@@ -1969,7 +1990,7 @@
         <v>4.2616208188230473</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1986,13 +2007,13 @@
         <v>0.65143308390958066</v>
       </c>
       <c r="F29">
-        <v>0.64</v>
+        <v>0.64595890621330621</v>
       </c>
       <c r="G29">
-        <v>-0.01</v>
+        <v>-5.4741776962744506E-3</v>
       </c>
       <c r="H29">
-        <v>-1.29</v>
+        <v>-0.84032847447985481</v>
       </c>
       <c r="I29">
         <v>0.64912276571066796</v>
@@ -2022,7 +2043,7 @@
         <v>-7.1247059684001206</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2039,13 +2060,13 @@
         <v>0.6638677373849764</v>
       </c>
       <c r="F30">
-        <v>0.66</v>
+        <v>0.6507921881276324</v>
       </c>
       <c r="G30">
-        <v>-0.01</v>
+        <v>-1.3075549257344001E-2</v>
       </c>
       <c r="H30">
-        <v>-1.05</v>
+        <v>-1.969601551786436</v>
       </c>
       <c r="I30">
         <v>0.69119187864659315</v>
@@ -2075,7 +2096,7 @@
         <v>8.5658177827419184</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2092,13 +2113,13 @@
         <v>0.56378082252094619</v>
       </c>
       <c r="F31">
-        <v>0.55000000000000004</v>
+        <v>0.54666182366316018</v>
       </c>
       <c r="G31">
-        <v>-0.02</v>
+        <v>-1.7118998857786009E-2</v>
       </c>
       <c r="H31">
-        <v>-2.7</v>
+        <v>-3.03646349324874</v>
       </c>
       <c r="I31">
         <v>0.59049933629429507</v>
@@ -2128,7 +2149,7 @@
         <v>5.0910056830874133</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2145,13 +2166,13 @@
         <v>0.59354568897725146</v>
       </c>
       <c r="F32">
-        <v>0.61</v>
+        <v>0.60769058276053123</v>
       </c>
       <c r="G32">
-        <v>0.02</v>
+        <v>1.414489378327977E-2</v>
       </c>
       <c r="H32">
-        <v>3.24</v>
+        <v>2.3831179378377878</v>
       </c>
       <c r="I32">
         <v>0.60556715042746001</v>
@@ -2181,7 +2202,7 @@
         <v>17.247842480908471</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2198,13 +2219,13 @@
         <v>0.63202226226738967</v>
       </c>
       <c r="F33">
-        <v>0.62</v>
+        <v>0.61742528083170889</v>
       </c>
       <c r="G33">
-        <v>-0.01</v>
+        <v>-1.459698143568078E-2</v>
       </c>
       <c r="H33">
-        <v>-2.2000000000000002</v>
+        <v>-2.3095676065766861</v>
       </c>
       <c r="I33">
         <v>0.62764116461701902</v>
@@ -2234,7 +2255,7 @@
         <v>7.6204970996060268</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2251,13 +2272,13 @@
         <v>0.56590332826740342</v>
       </c>
       <c r="F34">
-        <v>0.56000000000000005</v>
+        <v>0.54506740950513488</v>
       </c>
       <c r="G34">
-        <v>-0.01</v>
+        <v>-2.0835918762268531E-2</v>
       </c>
       <c r="H34">
-        <v>-1.66</v>
+        <v>-3.6818865911357652</v>
       </c>
       <c r="I34">
         <v>0.57148593770786005</v>
@@ -2287,7 +2308,7 @@
         <v>10.87631112728673</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2304,13 +2325,13 @@
         <v>0.63071289377913609</v>
       </c>
       <c r="F35">
-        <v>0.63</v>
+        <v>0.63150710971800739</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>7.9421593887130104E-4</v>
       </c>
       <c r="H35">
-        <v>-0.1</v>
+        <v>0.12592352981916691</v>
       </c>
       <c r="I35">
         <v>0.64406597892375361</v>
@@ -2340,7 +2361,7 @@
         <v>0.645021576458229</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2357,13 +2378,13 @@
         <v>0.64716472371618994</v>
       </c>
       <c r="F36">
-        <v>0.65</v>
+        <v>0.64509718215402523</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>-2.0675415621647102E-3</v>
       </c>
       <c r="H36">
-        <v>-0.04</v>
+        <v>-0.31947686367890121</v>
       </c>
       <c r="I36">
         <v>0.6769986406338262</v>
@@ -2393,7 +2414,7 @@
         <v>-3.197637153983139</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2410,13 +2431,13 @@
         <v>0.59858041234843973</v>
       </c>
       <c r="F37">
-        <v>0.56999999999999995</v>
+        <v>0.60167766578231707</v>
       </c>
       <c r="G37">
-        <v>-0.03</v>
+        <v>3.097253433877345E-3</v>
       </c>
       <c r="H37">
-        <v>-4.87</v>
+        <v>0.51743314181059474</v>
       </c>
       <c r="I37">
         <v>0.60649415981161092</v>
@@ -2446,7 +2467,7 @@
         <v>3.502370857363998</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2463,13 +2484,13 @@
         <v>0.55396471242833201</v>
       </c>
       <c r="F38">
-        <v>0.56000000000000005</v>
+        <v>0.57291860247817539</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1.895389004984338E-2</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>3.4214977280336241</v>
       </c>
       <c r="I38">
         <v>0.56632719583820845</v>
@@ -2499,7 +2520,7 @@
         <v>5.9001625374577022</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2516,13 +2537,13 @@
         <v>0.61142702943566496</v>
       </c>
       <c r="F39">
-        <v>0.64</v>
+        <v>0.62964351344663994</v>
       </c>
       <c r="G39">
-        <v>0.03</v>
+        <v>1.8216484010974979E-2</v>
       </c>
       <c r="H39">
-        <v>5.21</v>
+        <v>2.9793390108691189</v>
       </c>
       <c r="I39">
         <v>0.60763141847331625</v>
@@ -2552,7 +2573,7 @@
         <v>17.470456943329211</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2569,13 +2590,13 @@
         <v>0.59174827850693612</v>
       </c>
       <c r="F40">
-        <v>0.57999999999999996</v>
+        <v>0.58483828316964526</v>
       </c>
       <c r="G40">
-        <v>-0.01</v>
+        <v>-6.909995337290864E-3</v>
       </c>
       <c r="H40">
-        <v>-2.2999999999999998</v>
+        <v>-1.167725465078792</v>
       </c>
       <c r="I40">
         <v>0.61767957553559993</v>
@@ -2605,7 +2626,7 @@
         <v>5.0459156291462914</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2622,13 +2643,13 @@
         <v>0.52595334555044859</v>
       </c>
       <c r="F41">
-        <v>0.53</v>
+        <v>0.53457053150231215</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>8.6171859518635596E-3</v>
       </c>
       <c r="H41">
-        <v>0.16</v>
+        <v>1.638393599881953</v>
       </c>
       <c r="I41">
         <v>0.56226224329834307</v>
@@ -2658,7 +2679,7 @@
         <v>25.628774109448688</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2675,13 +2696,13 @@
         <v>0.58770320432907563</v>
       </c>
       <c r="F42">
-        <v>0.59</v>
+        <v>0.59084813483959719</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3.1449305105215601E-3</v>
       </c>
       <c r="H42">
-        <v>0.39</v>
+        <v>0.53512223301756967</v>
       </c>
       <c r="I42">
         <v>0.57413899682827663</v>
@@ -2711,7 +2732,7 @@
         <v>5.6876090919672997</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2728,13 +2749,13 @@
         <v>0.58552429504725556</v>
       </c>
       <c r="F43">
-        <v>0.59</v>
+        <v>0.58533943964513413</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>-1.8485540212143101E-4</v>
       </c>
       <c r="H43">
-        <v>0.09</v>
+        <v>-3.1570919206095803E-2</v>
       </c>
       <c r="I43">
         <v>0.59551891655546263</v>
@@ -2764,7 +2785,7 @@
         <v>16.739466118053389</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2781,13 +2802,13 @@
         <v>0.63962319153374991</v>
       </c>
       <c r="F44">
-        <v>0.64</v>
+        <v>0.63770470823652148</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-1.9184832972284349E-3</v>
       </c>
       <c r="H44">
-        <v>-0.05</v>
+        <v>-0.29993960860426461</v>
       </c>
       <c r="I44">
         <v>0.66828935853194982</v>
@@ -2817,7 +2838,7 @@
         <v>7.1334955469184154</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2834,13 +2855,13 @@
         <v>0.63875869357114901</v>
       </c>
       <c r="F45">
-        <v>0.63</v>
+        <v>0.63413661183023318</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>-4.6220817409158288E-3</v>
       </c>
       <c r="H45">
-        <v>-0.63</v>
+        <v>-0.72360373133629874</v>
       </c>
       <c r="I45">
         <v>0.64433154542899551</v>
@@ -2870,7 +2891,7 @@
         <v>1.063753268229505</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2887,13 +2908,13 @@
         <v>0.65016736698880273</v>
       </c>
       <c r="F46">
-        <v>0.65</v>
+        <v>0.64532136634707649</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>-4.8460006417262447E-3</v>
       </c>
       <c r="H46">
-        <v>-0.06</v>
+        <v>-0.74534664269142004</v>
       </c>
       <c r="I46">
         <v>0.65550109269896506</v>
@@ -2923,7 +2944,7 @@
         <v>9.8692319031158835</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2940,13 +2961,13 @@
         <v>0.54147583520670417</v>
       </c>
       <c r="F47">
-        <v>0.52</v>
+        <v>0.54402889168719759</v>
       </c>
       <c r="G47">
-        <v>-0.02</v>
+        <v>2.5530564804934208E-3</v>
       </c>
       <c r="H47">
-        <v>-3.8</v>
+        <v>0.47149961540182328</v>
       </c>
       <c r="I47">
         <v>0.57473303714491031</v>
@@ -2976,7 +2997,7 @@
         <v>21.887178474979539</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2993,13 +3014,13 @@
         <v>0.55527170400274273</v>
       </c>
       <c r="F48">
-        <v>0.57999999999999996</v>
+        <v>0.57044327862389677</v>
       </c>
       <c r="G48">
-        <v>0.03</v>
+        <v>1.517157462115404E-2</v>
       </c>
       <c r="H48">
-        <v>4.92</v>
+        <v>2.7322794429804218</v>
       </c>
       <c r="I48">
         <v>0.59610442476623238</v>
@@ -3029,7 +3050,7 @@
         <v>4.3546530836313897</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3046,13 +3067,13 @@
         <v>0.5724035447339948</v>
       </c>
       <c r="F49">
-        <v>0.56999999999999995</v>
+        <v>0.56810040816052121</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>-4.3031365734735871E-3</v>
       </c>
       <c r="H49">
-        <v>-0.55000000000000004</v>
+        <v>-0.75176623433967804</v>
       </c>
       <c r="I49">
         <v>0.58524600090765144</v>
@@ -3082,7 +3103,7 @@
         <v>2.0638688048229139</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3099,13 +3120,13 @@
         <v>0.61089724597209694</v>
       </c>
       <c r="F50">
-        <v>0.56999999999999995</v>
+        <v>0.60463559406829614</v>
       </c>
       <c r="G50">
-        <v>-0.04</v>
+        <v>-6.2616519038007912E-3</v>
       </c>
       <c r="H50">
-        <v>-6.19</v>
+        <v>-1.024992655489364</v>
       </c>
       <c r="I50">
         <v>0.61645084998336763</v>
@@ -3135,7 +3156,7 @@
         <v>1.790750879635993</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3152,13 +3173,13 @@
         <v>0.62531298714597516</v>
       </c>
       <c r="F51">
-        <v>0.63</v>
+        <v>0.62842368842512564</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3.110701279150474E-3</v>
       </c>
       <c r="H51">
-        <v>0.7</v>
+        <v>0.4974630853819611</v>
       </c>
       <c r="I51">
         <v>0.63181137412799315</v>
@@ -3188,7 +3209,7 @@
         <v>14.590087400830029</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3205,13 +3226,13 @@
         <v>0.63200757764391002</v>
       </c>
       <c r="F52">
-        <v>0.64</v>
+        <v>0.64132320740112392</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>9.3156297572138946E-3</v>
       </c>
       <c r="H52">
-        <v>1.83</v>
+        <v>1.4739743773234579</v>
       </c>
       <c r="I52">
         <v>0.63797979611747602</v>
@@ -3241,7 +3262,7 @@
         <v>14.148807988095459</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3258,13 +3279,13 @@
         <v>0.552791525227736</v>
       </c>
       <c r="F53">
-        <v>0.53</v>
+        <v>0.47994826410773178</v>
       </c>
       <c r="G53">
-        <v>-0.03</v>
+        <v>-7.2843261120004166E-2</v>
       </c>
       <c r="H53">
-        <v>-4.8099999999999996</v>
+        <v>-13.17734766103634</v>
       </c>
       <c r="I53">
         <v>0.5507737417243036</v>
@@ -3294,7 +3315,7 @@
         <v>-3.4324079541366488</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3311,13 +3332,13 @@
         <v>0.61596827644716989</v>
       </c>
       <c r="F54">
-        <v>0.62</v>
+        <v>0.62270008638171848</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>6.7318099345485827E-3</v>
       </c>
       <c r="H54">
-        <v>0.96</v>
+        <v>1.09288257073511</v>
       </c>
       <c r="I54">
         <v>0.59880150965853818</v>
@@ -3347,7 +3368,7 @@
         <v>-0.77794826634059289</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3364,13 +3385,13 @@
         <v>0.58896603362996547</v>
       </c>
       <c r="F55">
-        <v>0.56000000000000005</v>
+        <v>0.56341275050955786</v>
       </c>
       <c r="G55">
-        <v>-0.03</v>
+        <v>-2.5553283120407611E-2</v>
       </c>
       <c r="H55">
-        <v>-5.24</v>
+        <v>-4.3386683885512793</v>
       </c>
       <c r="I55">
         <v>0.57293604761266637</v>
@@ -3400,7 +3421,7 @@
         <v>14.318496417851691</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3417,13 +3438,13 @@
         <v>0.66943623196188085</v>
       </c>
       <c r="F56">
-        <v>0.67</v>
+        <v>0.66062991762800727</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>-8.8063143338735772E-3</v>
       </c>
       <c r="H56">
-        <v>-0.56000000000000005</v>
+        <v>-1.315482179395248</v>
       </c>
       <c r="I56">
         <v>0.67327313714592885</v>
@@ -3453,7 +3474,7 @@
         <v>-3.1472747837837209</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3470,13 +3491,13 @@
         <v>0.57470508719839064</v>
       </c>
       <c r="F57">
-        <v>0.55000000000000004</v>
+        <v>0.57446395629284708</v>
       </c>
       <c r="G57">
-        <v>-0.02</v>
+        <v>-2.4113090554356289E-4</v>
       </c>
       <c r="H57">
-        <v>-3.84</v>
+        <v>-4.1957329231074557E-2</v>
       </c>
       <c r="I57">
         <v>0.60738127241113449</v>
@@ -3506,7 +3527,7 @@
         <v>4.3709691308733323</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3523,13 +3544,13 @@
         <v>0.6003871488579865</v>
       </c>
       <c r="F58">
-        <v>0.56999999999999995</v>
+        <v>0.61236640600152747</v>
       </c>
       <c r="G58">
-        <v>-0.03</v>
+        <v>1.197925714354098E-2</v>
       </c>
       <c r="H58">
-        <v>-4.59</v>
+        <v>1.9952554224931469</v>
       </c>
       <c r="I58">
         <v>0.61966051404511746</v>
@@ -3559,7 +3580,7 @@
         <v>4.6439700647527529</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3576,13 +3597,13 @@
         <v>0.5563209674783004</v>
       </c>
       <c r="F59">
-        <v>0.57999999999999996</v>
+        <v>0.57732070444925909</v>
       </c>
       <c r="G59">
-        <v>0.03</v>
+        <v>2.099973697095869E-2</v>
       </c>
       <c r="H59">
-        <v>4.7</v>
+        <v>3.774752022406525</v>
       </c>
       <c r="I59">
         <v>0.60114614326408922</v>
@@ -3612,7 +3633,7 @@
         <v>20.718256394713201</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3629,13 +3650,13 @@
         <v>0.66768023390299991</v>
       </c>
       <c r="F60">
-        <v>0.67</v>
+        <v>0.66207674749855783</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>-5.6034864044420818E-3</v>
       </c>
       <c r="H60">
-        <v>0.14000000000000001</v>
+        <v>-0.83924701075637242</v>
       </c>
       <c r="I60">
         <v>0.62236869156902319</v>
@@ -3665,7 +3686,7 @@
         <v>6.0423613363867794</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3682,13 +3703,13 @@
         <v>0.597944994463808</v>
       </c>
       <c r="F61">
-        <v>0.56000000000000005</v>
+        <v>0.58868415438138189</v>
       </c>
       <c r="G61">
-        <v>-0.04</v>
+        <v>-9.2608400824261139E-3</v>
       </c>
       <c r="H61">
-        <v>-7.13</v>
+        <v>-1.5487779257572909</v>
       </c>
       <c r="I61">
         <v>0.61795997218240539</v>
@@ -3718,7 +3739,7 @@
         <v>6.9435835856312762</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3735,13 +3756,13 @@
         <v>0.58803198999576023</v>
       </c>
       <c r="F62">
-        <v>0.59</v>
+        <v>0.58359296259413296</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>-4.4390274016272713E-3</v>
       </c>
       <c r="H62">
-        <v>-0.22</v>
+        <v>-0.75489556302188199</v>
       </c>
       <c r="I62">
         <v>0.57990733214820778</v>
@@ -3771,7 +3792,7 @@
         <v>18.171409812155229</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3788,13 +3809,13 @@
         <v>0.62077573882610437</v>
       </c>
       <c r="F63">
-        <v>0.62</v>
+        <v>0.62630682597928411</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>5.5310871531797368E-3</v>
       </c>
       <c r="H63">
-        <v>-0.33</v>
+        <v>0.89099602436768877</v>
       </c>
       <c r="I63">
         <v>0.64367457016743046</v>
@@ -3824,7 +3845,7 @@
         <v>8.924643989555765</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3841,13 +3862,13 @@
         <v>0.54378518447839308</v>
       </c>
       <c r="F64">
-        <v>0.51</v>
+        <v>0.52865287102720071</v>
       </c>
       <c r="G64">
-        <v>-0.03</v>
+        <v>-1.513231345119237E-2</v>
       </c>
       <c r="H64">
-        <v>-5.39</v>
+        <v>-2.7827741327133642</v>
       </c>
       <c r="I64">
         <v>0.58524425643721656</v>
@@ -3877,7 +3898,7 @@
         <v>7.608580499184459</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3894,13 +3915,13 @@
         <v>0.63959691002467878</v>
       </c>
       <c r="F65">
-        <v>0.63</v>
+        <v>0.63069402643760886</v>
       </c>
       <c r="G65">
-        <v>-0.01</v>
+        <v>-8.9028835870699208E-3</v>
       </c>
       <c r="H65">
-        <v>-2.08</v>
+        <v>-1.3919522511024021</v>
       </c>
       <c r="I65">
         <v>0.66089754473697948</v>
@@ -3930,7 +3951,7 @@
         <v>1.7955628996455091</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3947,13 +3968,13 @@
         <v>0.66530953293040818</v>
       </c>
       <c r="F66">
-        <v>0.67</v>
+        <v>0.67194338341107662</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>6.6338504806684462E-3</v>
       </c>
       <c r="H66">
-        <v>0.21</v>
+        <v>0.99710738420493228</v>
       </c>
       <c r="I66">
         <v>0.68341826167297182</v>
@@ -3983,7 +4004,7 @@
         <v>8.310031300894682</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -4000,13 +4021,13 @@
         <v>0.64914326425900204</v>
       </c>
       <c r="F67">
-        <v>0.65</v>
+        <v>0.64260195305954104</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>-6.5413111994609974E-3</v>
       </c>
       <c r="H67">
-        <v>0.05</v>
+        <v>-1.007683751741292</v>
       </c>
       <c r="I67">
         <v>0.6510630105537949</v>
@@ -4036,7 +4057,7 @@
         <v>6.5801157912561612</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -4053,13 +4074,13 @@
         <v>0.4632702732186883</v>
       </c>
       <c r="F68">
-        <v>0.42</v>
+        <v>0.40664619906377891</v>
       </c>
       <c r="G68">
-        <v>-0.04</v>
+        <v>-5.6624074154909443E-2</v>
       </c>
       <c r="H68">
-        <v>-9.52</v>
+        <v>-12.222686718381309</v>
       </c>
       <c r="I68">
         <v>0.52221863101154076</v>
@@ -4089,7 +4110,7 @@
         <v>20.709027602378459</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -4106,13 +4127,13 @@
         <v>0.5667314691310702</v>
       </c>
       <c r="F69">
-        <v>0.54</v>
+        <v>0.55647624434412701</v>
       </c>
       <c r="G69">
-        <v>-0.02</v>
+        <v>-1.0255224786943179E-2</v>
       </c>
       <c r="H69">
-        <v>-4.4000000000000004</v>
+        <v>-1.809538616704452</v>
       </c>
       <c r="I69">
         <v>0.57725717776983987</v>
@@ -4142,7 +4163,7 @@
         <v>4.207343577283849</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -4159,13 +4180,13 @@
         <v>0.60292184229615331</v>
       </c>
       <c r="F70">
-        <v>0.61</v>
+        <v>0.6036238578408234</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7.0201554467008709E-4</v>
       </c>
       <c r="H70">
-        <v>0.56999999999999995</v>
+        <v>0.11643558010712431</v>
       </c>
       <c r="I70">
         <v>0.63262234308647525</v>
@@ -4195,7 +4216,7 @@
         <v>8.2345123166146266</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4212,13 +4233,13 @@
         <v>0.66868082892100067</v>
       </c>
       <c r="F71">
-        <v>0.66</v>
+        <v>0.66368076963503286</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-5.0000592859678061E-3</v>
       </c>
       <c r="H71">
-        <v>-0.74</v>
+        <v>-0.7477497588851203</v>
       </c>
       <c r="I71">
         <v>0.69206466833841529</v>
@@ -4248,7 +4269,7 @@
         <v>-1.5232171900072931</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4265,13 +4286,13 @@
         <v>0.62510555600810924</v>
       </c>
       <c r="F72">
-        <v>0.61</v>
+        <v>0.61412836248444558</v>
       </c>
       <c r="G72">
-        <v>-0.02</v>
+        <v>-1.0977193523663661E-2</v>
       </c>
       <c r="H72">
-        <v>-2.52</v>
+        <v>-1.7560543844408349</v>
       </c>
       <c r="I72">
         <v>0.62156823084696877</v>
@@ -4301,7 +4322,7 @@
         <v>3.5795098807658312</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4318,13 +4339,13 @@
         <v>0.61873908866004057</v>
       </c>
       <c r="F73">
-        <v>0.61</v>
+        <v>0.61343376175384257</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>-5.3053269061980046E-3</v>
       </c>
       <c r="H73">
-        <v>-0.78</v>
+        <v>-0.85744169124458824</v>
       </c>
       <c r="I73">
         <v>0.60704464351033727</v>
@@ -4354,7 +4375,7 @@
         <v>6.7046254996046217</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4371,13 +4392,13 @@
         <v>0.53400789618137989</v>
       </c>
       <c r="F74">
-        <v>0.51</v>
+        <v>0.5150034908114336</v>
       </c>
       <c r="G74">
-        <v>-0.02</v>
+        <v>-1.9004405369946301E-2</v>
       </c>
       <c r="H74">
-        <v>-4.33</v>
+        <v>-3.5588247862708209</v>
       </c>
       <c r="I74">
         <v>0.55016077637398564</v>
@@ -4407,7 +4428,7 @@
         <v>6.5710981908107717</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4424,13 +4445,13 @@
         <v>0.70595238910730163</v>
       </c>
       <c r="F75">
-        <v>0.69</v>
+        <v>0.67594522815413627</v>
       </c>
       <c r="G75">
-        <v>-0.02</v>
+        <v>-3.0007160953165361E-2</v>
       </c>
       <c r="H75">
-        <v>-2.54</v>
+        <v>-4.250592733471775</v>
       </c>
       <c r="I75">
         <v>0.68450388670164264</v>
@@ -4460,7 +4481,7 @@
         <v>-8.0681623283125834</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4477,13 +4498,13 @@
         <v>0.57642769641396041</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
+        <v>0.52166545103980067</v>
       </c>
       <c r="G76">
-        <v>-0.08</v>
+        <v>-5.4762245374159753E-2</v>
       </c>
       <c r="H76">
-        <v>-13.88</v>
+        <v>-9.5002800376948482</v>
       </c>
       <c r="I76">
         <v>0.55916721437165839</v>
@@ -4513,7 +4534,7 @@
         <v>5.0169487287485399</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4530,13 +4551,13 @@
         <v>0.57673708607965102</v>
       </c>
       <c r="F77">
-        <v>0.56999999999999995</v>
+        <v>0.58326683602019891</v>
       </c>
       <c r="G77">
-        <v>-0.01</v>
+        <v>6.5297499405478909E-3</v>
       </c>
       <c r="H77">
-        <v>-1.55</v>
+        <v>1.132188322574091</v>
       </c>
       <c r="I77">
         <v>0.60360033860518136</v>
@@ -4566,7 +4587,7 @@
         <v>3.3600512386205108</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4583,13 +4604,13 @@
         <v>0.6356702895307812</v>
       </c>
       <c r="F78">
-        <v>0.61</v>
+        <v>0.61885287849209836</v>
       </c>
       <c r="G78">
-        <v>-0.02</v>
+        <v>-1.6817411038682839E-2</v>
       </c>
       <c r="H78">
-        <v>-3.7</v>
+        <v>-2.6456185408785711</v>
       </c>
       <c r="I78">
         <v>0.6380232018361004</v>
@@ -4619,7 +4640,7 @@
         <v>0.79622582310890122</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4636,13 +4657,13 @@
         <v>0.63890134279725408</v>
       </c>
       <c r="F79">
-        <v>0.64</v>
+        <v>0.63912252808990944</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2.21185292655357E-4</v>
       </c>
       <c r="H79">
-        <v>0.16</v>
+        <v>3.4619631833446768E-2</v>
       </c>
       <c r="I79">
         <v>0.6216460709712921</v>
@@ -4672,7 +4693,7 @@
         <v>-5.8100653524249593</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4689,13 +4710,13 @@
         <v>0.58099892519336582</v>
       </c>
       <c r="F80">
-        <v>0.56000000000000005</v>
+        <v>0.57544020516996452</v>
       </c>
       <c r="G80">
-        <v>-0.02</v>
+        <v>-5.5587200234012979E-3</v>
       </c>
       <c r="H80">
-        <v>-3.77</v>
+        <v>-0.95675220424052709</v>
       </c>
       <c r="I80">
         <v>0.59121302145178023</v>
@@ -4725,7 +4746,7 @@
         <v>5.9589040700875406</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -4742,13 +4763,13 @@
         <v>0.64654354460843255</v>
       </c>
       <c r="F81">
-        <v>0.65</v>
+        <v>0.64315841571709398</v>
       </c>
       <c r="G81">
-        <v>0.01</v>
+        <v>-3.385128891338574E-3</v>
       </c>
       <c r="H81">
-        <v>0.92</v>
+        <v>-0.52357322558818775</v>
       </c>
       <c r="I81">
         <v>0.62228800522011551</v>
@@ -4778,7 +4799,7 @@
         <v>10.37146957420603</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -4795,13 +4816,13 @@
         <v>0.60094610713212993</v>
       </c>
       <c r="F82">
-        <v>0.61</v>
+        <v>0.61137846922794969</v>
       </c>
       <c r="G82">
-        <v>0.01</v>
+        <v>1.0432362095819769E-2</v>
       </c>
       <c r="H82">
-        <v>2.04</v>
+        <v>1.7359896290210941</v>
       </c>
       <c r="I82">
         <v>0.63199588150959718</v>
@@ -4831,7 +4852,7 @@
         <v>5.9820977284825272</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -4848,13 +4869,13 @@
         <v>0.61011502716393096</v>
       </c>
       <c r="F83">
-        <v>0.6</v>
+        <v>0.59789037160318648</v>
       </c>
       <c r="G83">
-        <v>-0.01</v>
+        <v>-1.222465556074448E-2</v>
       </c>
       <c r="H83">
-        <v>-1.36</v>
+        <v>-2.0036640660319049</v>
       </c>
       <c r="I83">
         <v>0.61999134943451284</v>
@@ -4884,7 +4905,7 @@
         <v>13.57660604646335</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -4901,13 +4922,13 @@
         <v>0.6321723920798954</v>
       </c>
       <c r="F84">
-        <v>0.63</v>
+        <v>0.63462788792128411</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2.4554958413887111E-3</v>
       </c>
       <c r="H84">
-        <v>-0.39</v>
+        <v>0.38842187228549202</v>
       </c>
       <c r="I84">
         <v>0.64532810280691266</v>
@@ -4937,7 +4958,7 @@
         <v>2.0164989375739411</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -4954,13 +4975,13 @@
         <v>0.59895101581459531</v>
       </c>
       <c r="F85">
-        <v>0.61</v>
+        <v>0.60918880449427593</v>
       </c>
       <c r="G85">
-        <v>0.01</v>
+        <v>1.023778867968062E-2</v>
       </c>
       <c r="H85">
-        <v>1.79</v>
+        <v>1.7092864707403239</v>
       </c>
       <c r="I85">
         <v>0.60943607493202911</v>
@@ -4990,7 +5011,7 @@
         <v>2.4350831982271082</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -5007,13 +5028,13 @@
         <v>0.57706576698884782</v>
       </c>
       <c r="F86">
-        <v>0.54</v>
+        <v>0.54200899644718037</v>
       </c>
       <c r="G86">
-        <v>-0.04</v>
+        <v>-3.5056770541667448E-2</v>
       </c>
       <c r="H86">
-        <v>-6.43</v>
+        <v>-6.0750043664165139</v>
       </c>
       <c r="I86">
         <v>0.59396549617226235</v>
@@ -5043,7 +5064,7 @@
         <v>21.956199899368681</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -5060,13 +5081,13 @@
         <v>0.46313534371080128</v>
       </c>
       <c r="F87">
-        <v>0.44</v>
+        <v>0.43094741307290629</v>
       </c>
       <c r="G87">
-        <v>-0.02</v>
+        <v>-3.2187930637895053E-2</v>
       </c>
       <c r="H87">
-        <v>-4.88</v>
+        <v>-6.9500052360491766</v>
       </c>
       <c r="I87">
         <v>0.52493944585479235</v>
@@ -5096,7 +5117,7 @@
         <v>-9.6230274612766173</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5113,13 +5134,13 @@
         <v>0.53492687564813035</v>
       </c>
       <c r="F88">
-        <v>0.53</v>
+        <v>0.51158155691305329</v>
       </c>
       <c r="G88">
-        <v>-0.01</v>
+        <v>-2.3345318735077059E-2</v>
       </c>
       <c r="H88">
-        <v>-1.3</v>
+        <v>-4.3642074828996593</v>
       </c>
       <c r="I88">
         <v>0.56447872380207242</v>
@@ -5149,7 +5170,7 @@
         <v>21.787631234955381</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5166,13 +5187,13 @@
         <v>0.51697723734464773</v>
       </c>
       <c r="F89">
-        <v>0.51</v>
+        <v>0.51157834382649714</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>-5.3988935181505937E-3</v>
       </c>
       <c r="H89">
-        <v>-0.69</v>
+        <v>-1.044319387422346</v>
       </c>
       <c r="I89">
         <v>0.45537599250489108</v>
@@ -5202,7 +5223,7 @@
         <v>27.472412713529199</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5219,13 +5240,13 @@
         <v>0.58487301606334596</v>
       </c>
       <c r="F90">
-        <v>0.57999999999999996</v>
+        <v>0.58591973703686473</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1.046720973518767E-3</v>
       </c>
       <c r="H90">
-        <v>-0.61</v>
+        <v>0.17896550956719109</v>
       </c>
       <c r="I90">
         <v>0.5980170980474343</v>
@@ -5255,7 +5276,7 @@
         <v>20.136774310242512</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5272,13 +5293,13 @@
         <v>0.60291016462773783</v>
       </c>
       <c r="F91">
-        <v>0.57999999999999996</v>
+        <v>0.59697251340692126</v>
       </c>
       <c r="G91">
-        <v>-0.02</v>
+        <v>-5.9376512208165746E-3</v>
       </c>
       <c r="H91">
-        <v>-3.8</v>
+        <v>-0.98483183219887027</v>
       </c>
       <c r="I91">
         <v>0.63491898008401337</v>
@@ -5308,7 +5329,7 @@
         <v>3.6304026058473622</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -5325,13 +5346,13 @@
         <v>0.58778054819322723</v>
       </c>
       <c r="F92">
-        <v>0.56999999999999995</v>
+        <v>0.57009325207057393</v>
       </c>
       <c r="G92">
-        <v>-0.01</v>
+        <v>-1.7687296122653299E-2</v>
       </c>
       <c r="H92">
-        <v>-2.4700000000000002</v>
+        <v>-3.0091666314957339</v>
       </c>
       <c r="I92">
         <v>0.59915456545157242</v>
@@ -5361,7 +5382,7 @@
         <v>12.49852708877402</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -5378,13 +5399,13 @@
         <v>0.59390413580566048</v>
       </c>
       <c r="F93">
-        <v>0.59</v>
+        <v>0.59240769733035248</v>
       </c>
       <c r="G93">
-        <v>-0.01</v>
+        <v>-1.496438475308004E-3</v>
       </c>
       <c r="H93">
-        <v>-1.04</v>
+        <v>-0.25196633346861802</v>
       </c>
       <c r="I93">
         <v>0.61110176817781225</v>
@@ -5414,7 +5435,7 @@
         <v>16.41175296196548</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5431,13 +5452,13 @@
         <v>0.60602135637526722</v>
       </c>
       <c r="F94">
-        <v>0.61</v>
+        <v>0.60505691825958841</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>-9.6443811567881177E-4</v>
       </c>
       <c r="H94">
-        <v>0.46</v>
+        <v>-0.15914259547671811</v>
       </c>
       <c r="I94">
         <v>0.61689831569330211</v>
@@ -5467,7 +5488,7 @@
         <v>10.28253833901115</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -5484,13 +5505,13 @@
         <v>0.54760406482764323</v>
       </c>
       <c r="F95">
-        <v>0.6</v>
+        <v>0.58779372339586766</v>
       </c>
       <c r="G95">
-        <v>0.05</v>
+        <v>4.0189658568224429E-2</v>
       </c>
       <c r="H95">
-        <v>8.92</v>
+        <v>7.3391819289862301</v>
       </c>
       <c r="I95">
         <v>0.61996118551543056</v>
@@ -5520,7 +5541,7 @@
         <v>27.51516746323</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5537,13 +5558,13 @@
         <v>0.57588232055452815</v>
       </c>
       <c r="F96">
-        <v>0.56000000000000005</v>
+        <v>0.56482096416094807</v>
       </c>
       <c r="G96">
-        <v>-0.02</v>
+        <v>-1.106135639358008E-2</v>
       </c>
       <c r="H96">
-        <v>-3.53</v>
+        <v>-1.920766795363485</v>
       </c>
       <c r="I96">
         <v>0.57154455386341774</v>
@@ -5573,7 +5594,7 @@
         <v>-0.85590812479436595</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -5590,13 +5611,13 @@
         <v>0.53829132620426501</v>
       </c>
       <c r="F97">
-        <v>0.55000000000000004</v>
+        <v>0.53766128029703641</v>
       </c>
       <c r="G97">
-        <v>0.01</v>
+        <v>-6.3004590722859355E-4</v>
       </c>
       <c r="H97">
-        <v>1.29</v>
+        <v>-0.11704552471081631</v>
       </c>
       <c r="I97">
         <v>0.57936646420965499</v>
@@ -5626,7 +5647,7 @@
         <v>26.13639360232342</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -5643,13 +5664,13 @@
         <v>0.61006662292185454</v>
       </c>
       <c r="F98">
-        <v>0.59</v>
+        <v>0.60022052227477896</v>
       </c>
       <c r="G98">
-        <v>-0.02</v>
+        <v>-9.8461006470755841E-3</v>
       </c>
       <c r="H98">
-        <v>-3.75</v>
+        <v>-1.6139385891853331</v>
       </c>
       <c r="I98">
         <v>0.64215993277864292</v>
@@ -5679,7 +5700,7 @@
         <v>4.7105528859093173</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -5696,13 +5717,13 @@
         <v>0.53839176275823986</v>
       </c>
       <c r="F99">
-        <v>0.55000000000000004</v>
+        <v>0.54567555749085583</v>
       </c>
       <c r="G99">
-        <v>0.01</v>
+        <v>7.283794732615978E-3</v>
       </c>
       <c r="H99">
-        <v>1.72</v>
+        <v>1.352880046919793</v>
       </c>
       <c r="I99">
         <v>0.58825787695206588</v>
@@ -5732,7 +5753,7 @@
         <v>20.229621423821239</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -5749,13 +5770,13 @@
         <v>0.54251418108978122</v>
       </c>
       <c r="F100">
-        <v>0.57999999999999996</v>
+        <v>0.57815002514562686</v>
       </c>
       <c r="G100">
-        <v>0.04</v>
+        <v>3.5635844055845627E-2</v>
       </c>
       <c r="H100">
-        <v>7.23</v>
+        <v>6.5686474746635648</v>
       </c>
       <c r="I100">
         <v>0.60922264186575181</v>
@@ -5785,7 +5806,7 @@
         <v>23.415219175978379</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -5802,13 +5823,13 @@
         <v>0.5384650981385386</v>
       </c>
       <c r="F101">
-        <v>0.54</v>
+        <v>0.54487053555310805</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>6.4054374145694482E-3</v>
       </c>
       <c r="H101">
-        <v>0.87</v>
+        <v>1.1895733700685329</v>
       </c>
       <c r="I101">
         <v>0.55192417364433721</v>
@@ -5838,7 +5859,7 @@
         <v>3.8601329420981991</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -5855,13 +5876,13 @@
         <v>0.63815362263533604</v>
       </c>
       <c r="F102">
-        <v>0.63</v>
+        <v>0.63199497573928387</v>
       </c>
       <c r="G102">
-        <v>-0.01</v>
+        <v>-6.1586468960521668E-3</v>
       </c>
       <c r="H102">
-        <v>-1.54</v>
+        <v>-0.96507277834124894</v>
       </c>
       <c r="I102">
         <v>0.67218070297435606</v>
@@ -5891,7 +5912,7 @@
         <v>2.4469724372176112</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -5908,13 +5929,13 @@
         <v>0.55239777949257052</v>
       </c>
       <c r="F103">
-        <v>0.56999999999999995</v>
+        <v>0.56294809166867377</v>
       </c>
       <c r="G103">
-        <v>0.01</v>
+        <v>1.0550312176103249E-2</v>
       </c>
       <c r="H103">
-        <v>2.48</v>
+        <v>1.909912126329455</v>
       </c>
       <c r="I103">
         <v>0.58914471787613731</v>
@@ -5944,7 +5965,7 @@
         <v>19.633809648957289</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -5961,13 +5982,13 @@
         <v>0.58207031373892137</v>
       </c>
       <c r="F104">
-        <v>0.59</v>
+        <v>0.58990648092087683</v>
       </c>
       <c r="G104">
-        <v>0.01</v>
+        <v>7.8361671819554557E-3</v>
       </c>
       <c r="H104">
-        <v>1.58</v>
+        <v>1.346257831226598</v>
       </c>
       <c r="I104">
         <v>0.58880619432376102</v>
@@ -5997,7 +6018,7 @@
         <v>1.4019545828077009</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -6014,13 +6035,13 @@
         <v>0.56277717013147521</v>
       </c>
       <c r="F105">
-        <v>0.56999999999999995</v>
+        <v>0.56027371087034505</v>
       </c>
       <c r="G105">
-        <v>0.01</v>
+        <v>-2.5034592611301591E-3</v>
       </c>
       <c r="H105">
-        <v>2.06</v>
+        <v>-0.44484023055613719</v>
       </c>
       <c r="I105">
         <v>0.57216352640439228</v>
@@ -6050,7 +6071,7 @@
         <v>19.866298176518409</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -6067,13 +6088,13 @@
         <v>0.58024401642629342</v>
       </c>
       <c r="F106">
-        <v>0.57999999999999996</v>
+        <v>0.58184580244138095</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1.601786015087536E-3</v>
       </c>
       <c r="H106">
-        <v>-0.55000000000000004</v>
+        <v>0.27605386177920299</v>
       </c>
       <c r="I106">
         <v>0.60552106645314696</v>
@@ -6103,7 +6124,7 @@
         <v>15.08937116745202</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -6120,13 +6141,13 @@
         <v>0.56443243837179291</v>
       </c>
       <c r="F107">
-        <v>0.56999999999999995</v>
+        <v>0.58084582781304217</v>
       </c>
       <c r="G107">
-        <v>0.01</v>
+        <v>1.641338944124926E-2</v>
       </c>
       <c r="H107">
-        <v>1.41</v>
+        <v>2.907945809882337</v>
       </c>
       <c r="I107">
         <v>0.58817555135118216</v>
@@ -6156,7 +6177,7 @@
         <v>4.1337102720724541</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -6173,13 +6194,13 @@
         <v>0.51345897218455405</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.47231978313419432</v>
       </c>
       <c r="G108">
-        <v>-0.02</v>
+        <v>-4.1139189050359737E-2</v>
       </c>
       <c r="H108">
-        <v>-2.98</v>
+        <v>-8.0121667511874666</v>
       </c>
       <c r="I108">
         <v>0.50490449481148048</v>
@@ -6209,7 +6230,7 @@
         <v>22.1943303212099</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -6226,13 +6247,13 @@
         <v>0.59522696144760734</v>
       </c>
       <c r="F109">
-        <v>0.59</v>
+        <v>0.60126914792847597</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>6.0421864808686276E-3</v>
       </c>
       <c r="H109">
-        <v>-0.35</v>
+        <v>1.0151063161140881</v>
       </c>
       <c r="I109">
         <v>0.5913589670444257</v>
@@ -6262,7 +6283,7 @@
         <v>12.14625471526541</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -6279,13 +6300,13 @@
         <v>0.56285990330897284</v>
       </c>
       <c r="F110">
-        <v>0.56999999999999995</v>
+        <v>0.56750243739958428</v>
       </c>
       <c r="G110">
-        <v>0.01</v>
+        <v>4.6425340906114387E-3</v>
       </c>
       <c r="H110">
-        <v>1.19</v>
+        <v>0.8248116562076363</v>
       </c>
       <c r="I110">
         <v>0.59487210325338991</v>
@@ -6315,7 +6336,7 @@
         <v>20.451132545936311</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -6332,13 +6353,13 @@
         <v>0.57359509283008125</v>
       </c>
       <c r="F111">
-        <v>0.56000000000000005</v>
+        <v>0.56790022777869309</v>
       </c>
       <c r="G111">
-        <v>-0.02</v>
+        <v>-5.6948650513881649E-3</v>
       </c>
       <c r="H111">
-        <v>-2.8</v>
+        <v>-0.99283712893882459</v>
       </c>
       <c r="I111">
         <v>0.54707056053269165</v>
@@ -6368,7 +6389,7 @@
         <v>15.13352987670336</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -6385,13 +6406,13 @@
         <v>0.56368128865516587</v>
       </c>
       <c r="F112">
-        <v>0.55000000000000004</v>
+        <v>0.5474477947043761</v>
       </c>
       <c r="G112">
-        <v>-0.02</v>
+        <v>-1.6233493950789771E-2</v>
       </c>
       <c r="H112">
-        <v>-3.03</v>
+        <v>-2.8799064786272641</v>
       </c>
       <c r="I112">
         <v>0.62238277819415244</v>
@@ -6421,7 +6442,7 @@
         <v>4.0766922382008977</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -6438,13 +6459,13 @@
         <v>0.55166175726227196</v>
       </c>
       <c r="F113">
-        <v>0.56999999999999995</v>
+        <v>0.57198336176632592</v>
       </c>
       <c r="G113">
-        <v>0.02</v>
+        <v>2.0321604504053958E-2</v>
       </c>
       <c r="H113">
-        <v>4.1900000000000004</v>
+        <v>3.6837073145878092</v>
       </c>
       <c r="I113">
         <v>0.60412191733512932</v>
@@ -6474,7 +6495,7 @@
         <v>17.838612964190659</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -6491,13 +6512,13 @@
         <v>0.57411246604240329</v>
       </c>
       <c r="F114">
-        <v>0.56000000000000005</v>
+        <v>0.56238333546239017</v>
       </c>
       <c r="G114">
-        <v>-0.01</v>
+        <v>-1.172913058001313E-2</v>
       </c>
       <c r="H114">
-        <v>-2</v>
+        <v>-2.0430022467317102</v>
       </c>
       <c r="I114">
         <v>0.59597915906541332</v>
@@ -6527,7 +6548,7 @@
         <v>3.1323538902330799</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -6544,13 +6565,13 @@
         <v>0.55132368477918736</v>
       </c>
       <c r="F115">
-        <v>0.53</v>
+        <v>0.54332013480322472</v>
       </c>
       <c r="G115">
-        <v>-0.03</v>
+        <v>-8.0035499759626427E-3</v>
       </c>
       <c r="H115">
-        <v>-4.5999999999999996</v>
+        <v>-1.4516971058785859</v>
       </c>
       <c r="I115">
         <v>0.55501641707323524</v>
@@ -6580,7 +6601,7 @@
         <v>4.1727850648300624</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -6597,13 +6618,13 @@
         <v>0.59483918214139253</v>
       </c>
       <c r="F116">
-        <v>0.57999999999999996</v>
+        <v>0.58835586193246536</v>
       </c>
       <c r="G116">
-        <v>-0.02</v>
+        <v>-6.483320208927168E-3</v>
       </c>
       <c r="H116">
-        <v>-2.96</v>
+        <v>-1.089928236668527</v>
       </c>
       <c r="I116">
         <v>0.55418492799269603</v>
@@ -6633,7 +6654,7 @@
         <v>-0.94222789098140636</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -6650,13 +6671,13 @@
         <v>0.57217103012002801</v>
       </c>
       <c r="F117">
-        <v>0.55000000000000004</v>
+        <v>0.56352523189396919</v>
       </c>
       <c r="G117">
-        <v>-0.02</v>
+        <v>-8.6457982260588206E-3</v>
       </c>
       <c r="H117">
-        <v>-3.77</v>
+        <v>-1.511051376411898</v>
       </c>
       <c r="I117">
         <v>0.60062077525338564</v>
@@ -6686,7 +6707,7 @@
         <v>8.6285949669133171</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -6703,13 +6724,13 @@
         <v>0.56568681765309836</v>
       </c>
       <c r="F118">
-        <v>0.57999999999999996</v>
+        <v>0.58058416863680951</v>
       </c>
       <c r="G118">
-        <v>0.01</v>
+        <v>1.489735098371114E-2</v>
       </c>
       <c r="H118">
-        <v>2.5499999999999998</v>
+        <v>2.6334979919660761</v>
       </c>
       <c r="I118">
         <v>0.60133673939225785</v>
@@ -6739,7 +6760,7 @@
         <v>16.431536360745881</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -6756,13 +6777,13 @@
         <v>0.555205176608355</v>
       </c>
       <c r="F119">
-        <v>0.56000000000000005</v>
+        <v>0.56210766753579078</v>
       </c>
       <c r="G119">
-        <v>0.01</v>
+        <v>6.9024909274357782E-3</v>
       </c>
       <c r="H119">
-        <v>1.51</v>
+        <v>1.243232451397843</v>
       </c>
       <c r="I119">
         <v>0.55474154442096302</v>
@@ -6792,7 +6813,7 @@
         <v>2.540452789882615</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -6809,13 +6830,13 @@
         <v>0.55900651585805339</v>
       </c>
       <c r="F120">
-        <v>0.57999999999999996</v>
+        <v>0.59214867088415168</v>
       </c>
       <c r="G120">
-        <v>0.02</v>
+        <v>3.3142155026098297E-2</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>5.9287600566205159</v>
       </c>
       <c r="I120">
         <v>0.61203836107706044</v>
@@ -6845,7 +6866,7 @@
         <v>8.683082622729172</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -6862,13 +6883,13 @@
         <v>0.53121680117305259</v>
       </c>
       <c r="F121">
-        <v>0.51</v>
+        <v>0.51841684414433487</v>
       </c>
       <c r="G121">
-        <v>-0.02</v>
+        <v>-1.279995702871772E-2</v>
       </c>
       <c r="H121">
-        <v>-3.12</v>
+        <v>-2.409554253640394</v>
       </c>
       <c r="I121">
         <v>0.59761163058805988</v>
@@ -6898,7 +6919,7 @@
         <v>25.870086786114129</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -6915,13 +6936,13 @@
         <v>0.69721388602933976</v>
       </c>
       <c r="F122">
-        <v>0.7</v>
+        <v>0.69221810686696084</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>-4.9957791623789216E-3</v>
       </c>
       <c r="H122">
-        <v>0.08</v>
+        <v>-0.71653466210061856</v>
       </c>
       <c r="I122">
         <v>0.6975757115083443</v>
@@ -6951,7 +6972,7 @@
         <v>4.5964195740905804</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -6968,13 +6989,13 @@
         <v>0.51849830644334016</v>
       </c>
       <c r="F123">
-        <v>0.52</v>
+        <v>0.50803283311856262</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>-1.0465473324777539E-2</v>
       </c>
       <c r="H123">
-        <v>0.81</v>
+        <v>-2.018419962943732</v>
       </c>
       <c r="I123">
         <v>0.55803349705869443</v>
@@ -7004,7 +7025,7 @@
         <v>20.18546495228199</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -7021,13 +7042,13 @@
         <v>0.55663404394894256</v>
       </c>
       <c r="F124">
-        <v>0.55000000000000004</v>
+        <v>0.57253688240936396</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1.5902838460421401E-2</v>
       </c>
       <c r="H124">
-        <v>-0.84</v>
+        <v>2.856964756880751</v>
       </c>
       <c r="I124">
         <v>0.59530080571316102</v>
@@ -7057,7 +7078,7 @@
         <v>6.553946371197898</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -7074,13 +7095,13 @@
         <v>0.58348633031744401</v>
       </c>
       <c r="F125">
-        <v>0.57999999999999996</v>
+        <v>0.5948927718169541</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1.1406441499510089E-2</v>
       </c>
       <c r="H125">
-        <v>0.06</v>
+        <v>1.9548772450769241</v>
       </c>
       <c r="I125">
         <v>0.55699500782193045</v>
@@ -7110,7 +7131,7 @@
         <v>19.75160858671029</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -7127,13 +7148,13 @@
         <v>0.57328884270361569</v>
       </c>
       <c r="F126">
-        <v>0.56000000000000005</v>
+        <v>0.55814154886992595</v>
       </c>
       <c r="G126">
-        <v>-0.02</v>
+        <v>-1.5147293833689729E-2</v>
       </c>
       <c r="H126">
-        <v>-2.8</v>
+        <v>-2.6421748873143041</v>
       </c>
       <c r="I126">
         <v>0.59944635409378955</v>
@@ -7163,7 +7184,7 @@
         <v>4.1527836710413428</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -7180,13 +7201,13 @@
         <v>0.57978645374930715</v>
       </c>
       <c r="F127">
-        <v>0.57999999999999996</v>
+        <v>0.58764595570951772</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>7.8595019602105687E-3</v>
       </c>
       <c r="H127">
-        <v>0.68</v>
+        <v>1.355585648713505</v>
       </c>
       <c r="I127">
         <v>0.56330245404164647</v>
@@ -7216,7 +7237,7 @@
         <v>8.1658195648325407</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -7233,13 +7254,13 @@
         <v>0.62278744813611553</v>
       </c>
       <c r="F128">
-        <v>0.62</v>
+        <v>0.61204107365613436</v>
       </c>
       <c r="G128">
-        <v>-0.01</v>
+        <v>-1.0746374479981171E-2</v>
       </c>
       <c r="H128">
-        <v>-0.92</v>
+        <v>-1.7255284306295871</v>
       </c>
       <c r="I128">
         <v>0.64440641204141236</v>
@@ -7269,7 +7290,7 @@
         <v>-12.053307451413</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -7286,13 +7307,13 @@
         <v>0.5670799902807937</v>
       </c>
       <c r="F129">
-        <v>0.52</v>
+        <v>0.53549763937541373</v>
       </c>
       <c r="G129">
-        <v>-0.04</v>
+        <v>-3.1582350905379968E-2</v>
       </c>
       <c r="H129">
-        <v>-7.67</v>
+        <v>-5.5692938292077194</v>
       </c>
       <c r="I129">
         <v>0.60504950991637763</v>
@@ -7322,7 +7343,7 @@
         <v>0.533931596219823</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -7339,13 +7360,13 @@
         <v>0.58209686743314681</v>
       </c>
       <c r="F130">
-        <v>0.59</v>
+        <v>0.60004848724615301</v>
       </c>
       <c r="G130">
-        <v>0.01</v>
+        <v>1.7951619813006189E-2</v>
       </c>
       <c r="H130">
-        <v>1.1599999999999999</v>
+        <v>3.0839574677951549</v>
       </c>
       <c r="I130">
         <v>0.60191007677030561</v>
@@ -7375,7 +7396,7 @@
         <v>3.5988712763419231</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -7392,13 +7413,13 @@
         <v>0.58844996641116332</v>
       </c>
       <c r="F131">
-        <v>0.57999999999999996</v>
+        <v>0.59338741171979659</v>
       </c>
       <c r="G131">
-        <v>-0.01</v>
+        <v>4.9374453086332704E-3</v>
       </c>
       <c r="H131">
-        <v>-1.68</v>
+        <v>0.83905949366362365</v>
       </c>
       <c r="I131">
         <v>0.58086751431566763</v>
@@ -7428,7 +7449,7 @@
         <v>2.8057299094525598</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -7445,13 +7466,13 @@
         <v>0.65710999582952578</v>
       </c>
       <c r="F132">
-        <v>0.64</v>
+        <v>0.64232020797332168</v>
       </c>
       <c r="G132">
-        <v>-0.02</v>
+        <v>-1.478978785620411E-2</v>
       </c>
       <c r="H132">
-        <v>-2.38</v>
+        <v>-2.2507324420675872</v>
       </c>
       <c r="I132">
         <v>0.67343440686986034</v>
@@ -7481,7 +7502,7 @@
         <v>-6.0760367367668859</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -7498,13 +7519,13 @@
         <v>0.59709169088591341</v>
       </c>
       <c r="F133">
-        <v>0.59</v>
+        <v>0.59992024367749719</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2.8285527915837831E-3</v>
       </c>
       <c r="H133">
-        <v>-0.42</v>
+        <v>0.47372168039836882</v>
       </c>
       <c r="I133">
         <v>0.57738632777351673</v>
@@ -7534,7 +7555,7 @@
         <v>6.6618288457316974E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -7551,13 +7572,13 @@
         <v>0.55461189588824855</v>
       </c>
       <c r="F134">
-        <v>0.55000000000000004</v>
+        <v>0.55302655095305187</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>-1.585344935196686E-3</v>
       </c>
       <c r="H134">
-        <v>-0.51</v>
+        <v>-0.2858476255107455</v>
       </c>
       <c r="I134">
         <v>0.59361211435565964</v>
@@ -7587,7 +7608,7 @@
         <v>23.757751007538989</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -7604,13 +7625,13 @@
         <v>0.63964622541842231</v>
       </c>
       <c r="F135">
-        <v>0.64</v>
+        <v>0.6316542476785395</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>-7.9919777398828051E-3</v>
       </c>
       <c r="H135">
-        <v>0.62</v>
+        <v>-1.2494371767229431</v>
       </c>
       <c r="I135">
         <v>0.66580260909122568</v>
@@ -7640,7 +7661,7 @@
         <v>10.056901592360269</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -7657,13 +7678,13 @@
         <v>0.54308097680931211</v>
       </c>
       <c r="F136">
-        <v>0.49</v>
+        <v>0.50677968011401076</v>
       </c>
       <c r="G136">
-        <v>-0.06</v>
+        <v>-3.6301296695301348E-2</v>
       </c>
       <c r="H136">
-        <v>-10.53</v>
+        <v>-6.68432485125465</v>
       </c>
       <c r="I136">
         <v>0.57976746219098341</v>
@@ -7693,7 +7714,7 @@
         <v>25.261436591960319</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -7710,13 +7731,13 @@
         <v>0.5513060894654549</v>
       </c>
       <c r="F137">
-        <v>0.54</v>
+        <v>0.54833472934480465</v>
       </c>
       <c r="G137">
-        <v>-0.01</v>
+        <v>-2.971360120650246E-3</v>
       </c>
       <c r="H137">
-        <v>-2.46</v>
+        <v>-0.53896740439258883</v>
       </c>
       <c r="I137">
         <v>0.56060958613733924</v>
@@ -7746,7 +7767,7 @@
         <v>5.4395127117378674</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -7763,13 +7784,13 @@
         <v>0.66407550146791317</v>
       </c>
       <c r="F138">
-        <v>0.66</v>
+        <v>0.65039635794125072</v>
       </c>
       <c r="G138">
-        <v>-0.01</v>
+        <v>-1.3679143526662441E-2</v>
       </c>
       <c r="H138">
-        <v>-1.1000000000000001</v>
+        <v>-2.0598777543254081</v>
       </c>
       <c r="I138">
         <v>0.67115367232064882</v>
@@ -7799,7 +7820,7 @@
         <v>-5.7750042112115088</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -7816,13 +7837,13 @@
         <v>0.54881308336519541</v>
       </c>
       <c r="F139">
-        <v>0.59</v>
+        <v>0.5871381539263778</v>
       </c>
       <c r="G139">
-        <v>0.04</v>
+        <v>3.8325070561182388E-2</v>
       </c>
       <c r="H139">
-        <v>8.01</v>
+        <v>6.9832647440148277</v>
       </c>
       <c r="I139">
         <v>0.61321487134081343</v>
@@ -7852,7 +7873,7 @@
         <v>20.288007644957641</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -7869,13 +7890,13 @@
         <v>0.52908836384944191</v>
       </c>
       <c r="F140">
-        <v>0.54</v>
+        <v>0.54196913494864396</v>
       </c>
       <c r="G140">
-        <v>0.01</v>
+        <v>1.288077109920205E-2</v>
       </c>
       <c r="H140">
-        <v>1.84</v>
+        <v>2.4345217130625501</v>
       </c>
       <c r="I140">
         <v>0.55089479387716178</v>
@@ -7905,7 +7926,7 @@
         <v>9.3179379879416846</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -7922,13 +7943,13 @@
         <v>0.52081577251819278</v>
       </c>
       <c r="F141">
-        <v>0.54</v>
+        <v>0.51431860662535001</v>
       </c>
       <c r="G141">
-        <v>0.02</v>
+        <v>-6.4971658928427711E-3</v>
       </c>
       <c r="H141">
-        <v>3.6</v>
+        <v>-1.24749791301987</v>
       </c>
       <c r="I141">
         <v>0.56030589517081142</v>
@@ -7958,7 +7979,7 @@
         <v>18.177191625450401</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -7975,13 +7996,13 @@
         <v>0.54381120213803102</v>
       </c>
       <c r="F142">
-        <v>0.55000000000000004</v>
+        <v>0.5411537425737214</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>-2.6574595643096281E-3</v>
       </c>
       <c r="H142">
-        <v>0.89</v>
+        <v>-0.48867319280324562</v>
       </c>
       <c r="I142">
         <v>0.57029716655501872</v>
@@ -8011,7 +8032,7 @@
         <v>18.012622754826111</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -8028,13 +8049,13 @@
         <v>0.63926753038291884</v>
       </c>
       <c r="F143">
-        <v>0.65</v>
+        <v>0.6463821370960956</v>
       </c>
       <c r="G143">
-        <v>0.01</v>
+        <v>7.1146067131767632E-3</v>
       </c>
       <c r="H143">
-        <v>1.97</v>
+        <v>1.1129310304427851</v>
       </c>
       <c r="I143">
         <v>0.66120010981779731</v>
@@ -8064,7 +8085,7 @@
         <v>10.657668580049171</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -8081,13 +8102,13 @@
         <v>0.59298827754057193</v>
       </c>
       <c r="F144">
-        <v>0.6</v>
+        <v>0.59282127234261495</v>
       </c>
       <c r="G144">
-        <v>0.01</v>
+        <v>-1.6700519795698199E-4</v>
       </c>
       <c r="H144">
-        <v>1.19</v>
+        <v>-2.8163321988360149E-2</v>
       </c>
       <c r="I144">
         <v>0.60599505809147147</v>
@@ -8117,7 +8138,7 @@
         <v>11.57420960561767</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8134,13 +8155,13 @@
         <v>0.5523456871369381</v>
       </c>
       <c r="F145">
-        <v>0.56000000000000005</v>
+        <v>0.54261437900575271</v>
       </c>
       <c r="G145">
-        <v>0.01</v>
+        <v>-9.73130813118539E-3</v>
       </c>
       <c r="H145">
-        <v>1.7</v>
+        <v>-1.7618148123192989</v>
       </c>
       <c r="I145">
         <v>0.57268995752015694</v>
@@ -8170,7 +8191,7 @@
         <v>22.472484171170741</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -8187,13 +8208,13 @@
         <v>0.53080743458030943</v>
       </c>
       <c r="F146">
-        <v>0.54</v>
+        <v>0.53709472519969437</v>
       </c>
       <c r="G146">
-        <v>0.01</v>
+        <v>6.2872906193849332E-3</v>
       </c>
       <c r="H146">
-        <v>1.08</v>
+        <v>1.1844767442558659</v>
       </c>
       <c r="I146">
         <v>0.56846521664752281</v>
@@ -8223,7 +8244,7 @@
         <v>20.687846151720851</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -8240,13 +8261,13 @@
         <v>0.58031479755832416</v>
       </c>
       <c r="F147">
-        <v>0.56000000000000005</v>
+        <v>0.57188102902508775</v>
       </c>
       <c r="G147">
-        <v>-0.02</v>
+        <v>-8.4337685332364076E-3</v>
       </c>
       <c r="H147">
-        <v>-4.18</v>
+        <v>-1.45330923297519</v>
       </c>
       <c r="I147">
         <v>0.57235664329416691</v>
@@ -8276,7 +8297,7 @@
         <v>5.7639516444594658</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -8293,13 +8314,13 @@
         <v>0.55548974712391563</v>
       </c>
       <c r="F148">
-        <v>0.55000000000000004</v>
+        <v>0.54294473925933473</v>
       </c>
       <c r="G148">
-        <v>-0.01</v>
+        <v>-1.25450078645809E-2</v>
       </c>
       <c r="H148">
-        <v>-1.83</v>
+        <v>-2.2583689311159212</v>
       </c>
       <c r="I148">
         <v>0.60935319803946819</v>
@@ -8329,7 +8350,7 @@
         <v>23.52109159583382</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -8346,13 +8367,13 @@
         <v>0.59227138880381147</v>
       </c>
       <c r="F149">
-        <v>0.57999999999999996</v>
+        <v>0.57331319199648256</v>
       </c>
       <c r="G149">
-        <v>-0.01</v>
+        <v>-1.8958196807328909E-2</v>
       </c>
       <c r="H149">
-        <v>-1.62</v>
+        <v>-3.2009307161735561</v>
       </c>
       <c r="I149">
         <v>0.63588110837179646</v>
@@ -8382,7 +8403,7 @@
         <v>4.4012886446223156</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -8399,13 +8420,13 @@
         <v>0.56887439540844342</v>
       </c>
       <c r="F150">
-        <v>0.56999999999999995</v>
+        <v>0.57302339537724323</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>4.1489999687998047E-3</v>
       </c>
       <c r="H150">
-        <v>-0.56999999999999995</v>
+        <v>0.72933498190244339</v>
       </c>
       <c r="I150">
         <v>0.60158980526224304</v>
@@ -8435,7 +8456,7 @@
         <v>4.9528628301164748</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -8452,13 +8473,13 @@
         <v>0.5642386003214972</v>
       </c>
       <c r="F151">
-        <v>0.56999999999999995</v>
+        <v>0.57156938421800962</v>
       </c>
       <c r="G151">
-        <v>0.01</v>
+        <v>7.3307838965124272E-3</v>
       </c>
       <c r="H151">
-        <v>1.72</v>
+        <v>1.299234737278772</v>
       </c>
       <c r="I151">
         <v>0.60012223081774918</v>
@@ -8488,7 +8509,7 @@
         <v>12.47374548949136</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -8505,13 +8526,13 @@
         <v>0.70195116543910907</v>
       </c>
       <c r="F152">
-        <v>0.68</v>
+        <v>0.67587513475294581</v>
       </c>
       <c r="G152">
-        <v>-0.02</v>
+        <v>-2.6076030686163269E-2</v>
       </c>
       <c r="H152">
-        <v>-3.06</v>
+        <v>-3.7147927049670582</v>
       </c>
       <c r="I152">
         <v>0.68702084307598654</v>
@@ -8541,7 +8562,7 @@
         <v>2.956229083247806</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -8558,13 +8579,13 @@
         <v>0.56905940971368452</v>
       </c>
       <c r="F153">
-        <v>0.6</v>
+        <v>0.59460012695349573</v>
       </c>
       <c r="G153">
-        <v>0.03</v>
+        <v>2.554071723981122E-2</v>
       </c>
       <c r="H153">
-        <v>5.35</v>
+        <v>4.4882338827613317</v>
       </c>
       <c r="I153">
         <v>0.62059650988447745</v>
@@ -8594,7 +8615,7 @@
         <v>23.47525817437219</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -8611,13 +8632,13 @@
         <v>0.53362672620906859</v>
       </c>
       <c r="F154">
-        <v>0.53</v>
+        <v>0.52325427739892083</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>-1.0372448810147761E-2</v>
       </c>
       <c r="H154">
-        <v>-0.66</v>
+        <v>-1.943764864221579</v>
       </c>
       <c r="I154">
         <v>0.5082309121473314</v>
@@ -8647,7 +8668,7 @@
         <v>29.251015376020408</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -8664,13 +8685,13 @@
         <v>0.63299867663035769</v>
       </c>
       <c r="F155">
-        <v>0.66</v>
+        <v>0.64836840825842312</v>
       </c>
       <c r="G155">
-        <v>0.03</v>
+        <v>1.5369731628065431E-2</v>
       </c>
       <c r="H155">
-        <v>4.24</v>
+        <v>2.4280827425869411</v>
       </c>
       <c r="I155">
         <v>0.59401746708929593</v>
@@ -8700,7 +8721,7 @@
         <v>9.8467800876525313</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -8717,13 +8738,13 @@
         <v>0.55855588167105052</v>
       </c>
       <c r="F156">
-        <v>0.55000000000000004</v>
+        <v>0.55517986532025154</v>
       </c>
       <c r="G156">
-        <v>-0.01</v>
+        <v>-3.3760163507989831E-3</v>
       </c>
       <c r="H156">
-        <v>-1.19</v>
+        <v>-0.60441872721827583</v>
       </c>
       <c r="I156">
         <v>0.57465263774325015</v>
@@ -8753,7 +8774,7 @@
         <v>20.459380652880391</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -8770,13 +8791,13 @@
         <v>0.62699232593362964</v>
       </c>
       <c r="F157">
-        <v>0.63</v>
+        <v>0.62126519058500496</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>-5.727135348624679E-3</v>
       </c>
       <c r="H157">
-        <v>0.19</v>
+        <v>-0.91342989566844013</v>
       </c>
       <c r="I157">
         <v>0.64952825128903824</v>
@@ -8806,7 +8827,7 @@
         <v>12.27924798582403</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -8823,13 +8844,13 @@
         <v>0.55108626739331257</v>
       </c>
       <c r="F158">
-        <v>0.59</v>
+        <v>0.57996685739824327</v>
       </c>
       <c r="G158">
-        <v>0.04</v>
+        <v>2.888059000493071E-2</v>
       </c>
       <c r="H158">
-        <v>6.67</v>
+        <v>5.2406658836806956</v>
       </c>
       <c r="I158">
         <v>0.55901102619268705</v>
@@ -8859,7 +8880,7 @@
         <v>27.424472016963971</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -8876,13 +8897,13 @@
         <v>0.62661999932509582</v>
       </c>
       <c r="F159">
-        <v>0.62</v>
+        <v>0.62446132349217254</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>-2.1586758329232851E-3</v>
       </c>
       <c r="H159">
-        <v>-0.28999999999999998</v>
+        <v>-0.34449520207594669</v>
       </c>
       <c r="I159">
         <v>0.61639375297763932</v>
@@ -8912,7 +8933,7 @@
         <v>13.7169300764561</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -8929,13 +8950,13 @@
         <v>0.66473085997553616</v>
       </c>
       <c r="F160">
-        <v>0.66</v>
+        <v>0.66180722039563578</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>-2.9236395799003829E-3</v>
       </c>
       <c r="H160">
-        <v>-0.62</v>
+        <v>-0.43982305560599078</v>
       </c>
       <c r="I160">
         <v>0.63064543398852013</v>
@@ -8965,7 +8986,7 @@
         <v>-1.716463235872822</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -8982,13 +9003,13 @@
         <v>0.64450988851979862</v>
       </c>
       <c r="F161">
-        <v>0.64</v>
+        <v>0.64162257515587351</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>-2.8873133639251152E-3</v>
       </c>
       <c r="H161">
-        <v>-0.36</v>
+        <v>-0.44798589057434141</v>
       </c>
       <c r="I161">
         <v>0.60451438245649047</v>
@@ -9018,7 +9039,7 @@
         <v>-4.0307281913661432</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -9035,13 +9056,13 @@
         <v>0.60844187378124759</v>
       </c>
       <c r="F162">
-        <v>0.61</v>
+        <v>0.60977896751431593</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1.3370937330683401E-3</v>
       </c>
       <c r="H162">
-        <v>0.17</v>
+        <v>0.21975702046257639</v>
       </c>
       <c r="I162">
         <v>0.58177291527456965</v>
@@ -9071,7 +9092,7 @@
         <v>-3.3345725712585792</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -9088,13 +9109,13 @@
         <v>0.6141576008922276</v>
       </c>
       <c r="F163">
-        <v>0.61</v>
+        <v>0.61283263448398451</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>-1.324966408243089E-3</v>
       </c>
       <c r="H163">
-        <v>-0.59</v>
+        <v>-0.21573719942865191</v>
       </c>
       <c r="I163">
         <v>0.60090180918686475</v>
@@ -9124,7 +9145,7 @@
         <v>-3.0411852119211829</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
@@ -9135,13 +9156,13 @@
         <v>95.670180412168165</v>
       </c>
       <c r="F164">
-        <v>94.97</v>
+        <v>94.920654478792756</v>
       </c>
       <c r="G164">
-        <v>-0.7</v>
+        <v>-0.74952593337539686</v>
       </c>
       <c r="H164">
-        <v>-120.87</v>
+        <v>-136.42332567666591</v>
       </c>
       <c r="I164">
         <v>97.685179963509441</v>
@@ -9171,7 +9192,7 @@
         <v>1508.048997990747</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>8</v>
       </c>
@@ -9182,13 +9203,13 @@
         <v>0.59055666921091454</v>
       </c>
       <c r="F165">
-        <v>0.59</v>
+        <v>0.58592996591847379</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>-4.6267032924407212E-3</v>
       </c>
       <c r="H165">
-        <v>-0.75</v>
+        <v>-0.84211929430040633</v>
       </c>
       <c r="I165">
         <v>0.60299493804635462</v>
